--- a/biology/Médecine/1645_en_santé_et_médecine/1645_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1645_en_santé_et_médecine/1645_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1645_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1645_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1645 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1645_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1645_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -519,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1645_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1645_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -537,9 +551,11 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>18 octobre : le médecin anglais Daniel Whistler (en) présente le premier texte imprimé sur le rachitisme pédiatrique, une maladie des Angles de l'enfance, dont la langue indigène appelle "The Rickets", comme sujet de thèse à l'université de Leyde[1].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>18 octobre : le médecin anglais Daniel Whistler (en) présente le premier texte imprimé sur le rachitisme pédiatrique, une maladie des Angles de l'enfance, dont la langue indigène appelle "The Rickets", comme sujet de thèse à l'université de Leyde.</t>
         </is>
       </c>
     </row>
@@ -549,7 +565,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1645_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1645_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -567,7 +583,9 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>17 novembre : Nicolas Lémery (mort en 1715), apothicaire et chimiste français.</t>
         </is>
@@ -579,7 +597,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1645_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1645_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -597,7 +615,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Date non précisée
 Jean Rey (né en 1583), médecin et chimiste français.
